--- a/MVC.xlsx
+++ b/MVC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\Physics Problem Roulette\Expansion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\pr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
   <si>
     <t>Models</t>
   </si>
@@ -122,10 +122,13 @@
     <t>Director</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>?should I put a u to delete views (i.e. ProbAns when you switch from problems tab)</t>
+    <t>Problems</t>
+  </si>
+  <si>
+    <t>Events that happen on this page</t>
+  </si>
+  <si>
+    <t>Selector</t>
   </si>
 </sst>
 </file>
@@ -514,17 +517,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -539,7 +542,7 @@
     <col min="15" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -560,7 +563,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -610,7 +613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -636,7 +639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -646,9 +649,6 @@
       <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
@@ -665,16 +665,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -688,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -696,7 +693,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -704,11 +701,8 @@
       <c r="L6" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -719,7 +713,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -730,6 +724,9 @@
       <c r="J7" t="s">
         <v>12</v>
       </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
       <c r="O7" t="s">
         <v>12</v>
       </c>
@@ -737,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -745,36 +742,33 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
@@ -782,19 +776,19 @@
         <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="P10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
       <c r="F11" t="s">
         <v>28</v>
       </c>
@@ -802,16 +796,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
@@ -822,16 +813,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
@@ -842,27 +830,89 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" t="s">
-        <v>12</v>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MVC.xlsx
+++ b/MVC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
   <si>
     <t>Models</t>
   </si>
@@ -517,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -874,6 +874,9 @@
       <c r="C21" t="s">
         <v>17</v>
       </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -885,6 +888,9 @@
       <c r="C22" t="s">
         <v>19</v>
       </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -896,15 +902,29 @@
       <c r="C23" t="s">
         <v>13</v>
       </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>30</v>
       </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
